--- a/Datos/Database by set/Set with text box/Xlsx sets/15th Anniversary Cards (P15A).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/15th Anniversary Cards (P15A).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,70 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t>('Char', ['{2}{R}', 'Instant', 'Char deals 4 damage to any target and 2 damage to you.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Char deals 4 damage to any target and 2 damage to you.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Kamahl, Pit Fighter</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{4}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Human Barbarian</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Haste (This creature can attack and {T} as soon as it comes under your control.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{T}: Kamahl, Pit Fighter deals 3 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>6/1</t>
+          <t>('Kamahl, Pit Fighter', ['{4}{R}{R}', 'Legendary Creature — Human Barbarian', 'Haste (This creature can attack and {T} as soon as it comes under your control.)', '{T}: Kamahl, Pit Fighter deals 3 damage to any target.', '6/1'])</t>
         </is>
       </c>
     </row>
